--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/3.BaoGiaBH/BG211104_GpsTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/3.BaoGiaBH/BG211104_GpsTayNinh.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>Điot chống quá áp</t>
-  </si>
-  <si>
-    <t>Vỏ hộp TG102LE</t>
-  </si>
-  <si>
-    <t>VT_VỎ HỘP_TG102LE</t>
   </si>
   <si>
     <t>Hà Nội, ngày 04 tháng 11 Năm 2021</t>
@@ -132,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,12 +231,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -595,7 +583,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -688,6 +676,21 @@
     <xf numFmtId="3" fontId="15" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -750,24 +753,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1123,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA45"/>
+  <dimension ref="A1:AA44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="84" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F19" sqref="F19:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1153,94 +1138,94 @@
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
     </row>
     <row r="6" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="60" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="12"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
@@ -1248,10 +1233,10 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="29"/>
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
@@ -1262,13 +1247,13 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="13"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -1276,10 +1261,10 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="29"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
@@ -1291,10 +1276,10 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="56"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="31"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
@@ -1359,7 +1344,7 @@
       <c r="G13" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H13" s="38">
         <v>1</v>
       </c>
       <c r="I13" s="37">
@@ -1392,7 +1377,7 @@
       <c r="G14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="38">
         <v>1</v>
       </c>
       <c r="I14" s="37">
@@ -1403,63 +1388,43 @@
       </c>
       <c r="AA14" s="15"/>
     </row>
-    <row r="15" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
-        <v>3</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="26">
-        <v>9</v>
-      </c>
-      <c r="I15" s="37">
-        <v>50000</v>
-      </c>
-      <c r="J15" s="37">
-        <f>I15*H15</f>
-        <v>450000</v>
-      </c>
-      <c r="K15" s="37"/>
+    <row r="15" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="27">
+        <f>SUM(J13:J14)</f>
+        <v>24000</v>
+      </c>
       <c r="AA15" s="15"/>
     </row>
-    <row r="16" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="27">
-        <f>SUM(J13:J15)</f>
-        <v>474000</v>
-      </c>
+    <row r="16" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="24"/>
       <c r="AA16" s="15"/>
     </row>
     <row r="17" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
@@ -1467,49 +1432,49 @@
       <c r="J17" s="24"/>
       <c r="AA17" s="15"/>
     </row>
-    <row r="18" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="24"/>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="33"/>
       <c r="AA18" s="15"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="33"/>
+      <c r="A19" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
       <c r="AA19" s="15"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
       <c r="AA20" s="15"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
@@ -1518,7 +1483,9 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
+      <c r="F21" s="33" t="s">
+        <v>16</v>
+      </c>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
@@ -1531,9 +1498,7 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
-      <c r="F22" s="33" t="s">
-        <v>16</v>
-      </c>
+      <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
@@ -1553,55 +1518,45 @@
       <c r="J23" s="33"/>
       <c r="AA23" s="15"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
+    <row r="24" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
       <c r="AA24" s="15"/>
     </row>
     <row r="25" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
       <c r="AA25" s="15"/>
     </row>
-    <row r="26" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
+    <row r="26" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F26" s="23"/>
       <c r="AA26" s="15"/>
     </row>
     <row r="27" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="F27" s="23"/>
+      <c r="E27" s="23"/>
       <c r="AA27" s="15"/>
     </row>
-    <row r="28" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="E28" s="23"/>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA28" s="15"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
@@ -1651,31 +1606,28 @@
     </row>
     <row r="44" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA44" s="15"/>
-    </row>
-    <row r="45" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA45" s="15"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E1:J2"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B9:F9"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E1:J2"/>
+    <mergeCell ref="E3:J3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
